--- a/database/seeders/Users.xlsx
+++ b/database/seeders/Users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -55,10 +55,28 @@
     <t xml:space="preserve">$2y$12$gwbh2pShXLulyjhkjo6Z5.xw13mC.faiADm0Rq5lXLPnBiQR08llC</t>
   </si>
   <si>
-    <t xml:space="preserve">files/users/</t>
+    <t xml:space="preserve">files/users/ftd6</t>
   </si>
   <si>
     <t xml:space="preserve">none.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Wick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uno@dev.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">files/users/sjd4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phineas Wick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dos@dev.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">files/users/djfk7</t>
   </si>
 </sst>
 </file>
@@ -68,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,6 +107,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -142,7 +167,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,24 +367,26 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -375,13 +406,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -398,6 +429,58 @@
       </c>
       <c r="H2" s="1" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -558,6 +641,10 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="uno@dev.com"/>
+    <hyperlink ref="C4" r:id="rId2" display="dos@dev.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
